--- a/Excel_Mapping/Mapping/Import_Mapping_ausstellung_fotograf.xlsx
+++ b/Excel_Mapping/Mapping/Import_Mapping_ausstellung_fotograf.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">ca_entities</t>
   </si>
   <si>
-    <t xml:space="preserve">objectSplitter</t>
+    <t xml:space="preserve">entitySplitter</t>
   </si>
   <si>
     <t xml:space="preserve">{"relationshipType": "subject", "entityType": "photographer"}</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">Organization_X_Literature</t>
+    <t xml:space="preserve">Exhibition_X_Photographer</t>
   </si>
   <si>
     <t xml:space="preserve">Human readable name of the mapping</t>
@@ -371,7 +371,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -490,6 +490,12 @@
       <name val="Lucida Grande"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -639,7 +645,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -686,6 +692,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -787,8 +797,8 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -949,7 +959,7 @@
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -990,7 +1000,7 @@
       <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="3" t="s">
